--- a/工具说明/【动作】bip批量导入导出.xlsx
+++ b/工具说明/【动作】bip批量导入导出.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>工具：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,34 @@
   </si>
   <si>
     <t>3同样需要选择一个骨骼进行设置，点击5 ，在场景中 pick 一个骨骼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 动作批量导入做了修改-- 导入bip 检查到和bip 一样的max文件，直接加载 max文件，导入动画， 如果没有对应的max文件， 则使用标准文件，导入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次修改主要是解决 bip多次导入问题， 比如 下面这个 bip 需要导出两次， 需要导入两次，方式， 每次都使用新文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 攻击迭代：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击迭代看6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支持同时导出4个bip动画，命名分别是 前缀是tanpei 01 - 04 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据， 根据按钮 1-4 分别使用 tanpei 01 -4 数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多bip 骑马动作已经支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,6 +452,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370917</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>209159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E49FD0-4B3E-4FC1-8E14-820E5932C4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="39833550"/>
+          <a:ext cx="4466667" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209190</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>8534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF6169B-BB8A-4797-9182-2473AE831FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="43519725"/>
+          <a:ext cx="2876190" cy="7923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -724,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="X163" sqref="X163"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="I202" sqref="I202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,6 +852,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -815,6 +934,36 @@
     <row r="133" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G198" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
